--- a/数据字典设计.xlsx
+++ b/数据字典设计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\test2\马勒New\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14090085-F2EF-4BDB-B692-5712B14F9BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6B8FB2-8006-41BA-886A-2D36ACB82AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{420E63D9-39BB-DF4F-A516-DD822E398AC7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="351">
   <si>
     <t>合同分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,18 +174,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>税点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,18 +372,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>签约主体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>币种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合同文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,14 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选取文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,10 +397,6 @@
   </si>
   <si>
     <t>合同模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -615,10 +583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>废止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>印章图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,18 +765,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经办部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合同状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增合同申请</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -845,19 +801,486 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经办部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经办人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税点</t>
+    <t>追加解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同到期提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原文件存放地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本部门经理审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取相关文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史合同归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原件存放地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同到期提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成并继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同查询-新增/编辑详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同查询-归档详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同查询-更新详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移交印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可外借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保管人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对方列表-新增/编辑详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对方列表-联系人详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人-新增/编辑详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划用印日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用印登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出用印报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用印文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际用印日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用印登记-新增/查看详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用印说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划借用日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划返还日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增公章外借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出公章外借报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际借用日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际返还日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子公司法人章申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作废原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用印文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程申请-印章作废详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程申请-子公司法人章申请详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将到期合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>申请编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -865,15 +1288,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审批意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>意见内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>追加解释</t>
+    <t>发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增/更新合同模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传已有合同模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板-上传已有合同模板详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板-新增/更新合同模板详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传已有印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章登记-新增印章/上传已有印章详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章登记-查看详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印章名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保管人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -897,7 +1412,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
+    <t>审批时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -909,435 +1424,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归档文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选取文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同到期提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原文件存放地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本部门经理审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急理由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选取合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选取相关文件</t>
+    <t>撤销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公章外借-新增公章外借详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公章外借-查看详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际借用日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划返还日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际返还日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史合同归档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原件存放地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同到期提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成并继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增合同模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同模板-新增详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请理由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同查询-新增/编辑详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同查询-归档详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同查询-更新详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增印章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出印章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移交印章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归还</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可外借</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保管人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归属主体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传印章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对方列表-新增/编辑详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对方列表-联系人详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人-新增/编辑详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章登记-新增/查看/编辑详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划用印日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增用印登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出用印报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用印文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际用印日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已用印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拒绝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用印登记-新增/查看详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用印说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借用人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划借用日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划返还日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增公章外借</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出公章外借报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际借用日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际返还日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>印章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借用说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公章外借-新增/查看详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子公司法人章申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作废原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用印文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程申请-印章作废详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程申请-子公司法人章申请详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1535,39 +1654,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1580,14 +1666,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1937,11 +2056,11 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1949,9 +2068,9 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1959,9 +2078,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1969,9 +2088,9 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1979,9 +2098,9 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1989,7 +2108,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1997,7 +2116,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2005,7 +2124,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2013,7 +2132,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2021,7 +2140,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2029,7 +2148,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2151,10 +2270,10 @@
     <row r="24" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2173,7 +2292,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2183,7 +2302,7 @@
     <row r="27" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -2193,7 +2312,7 @@
     <row r="28" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2203,7 +2322,7 @@
     <row r="29" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2213,7 +2332,7 @@
     <row r="30" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2223,7 +2342,7 @@
     <row r="31" spans="1:6">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2243,7 +2362,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2253,7 +2372,7 @@
     <row r="34" spans="1:6">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2263,7 +2382,7 @@
     <row r="35" spans="1:6">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2283,7 +2402,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2293,7 +2412,7 @@
     <row r="38" spans="1:6">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2321,7 +2440,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2331,7 +2450,7 @@
     <row r="42" spans="1:6">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2744,11 +2863,11 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -2756,7 +2875,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -2764,7 +2883,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -2776,11 +2895,11 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -2788,7 +2907,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -2796,7 +2915,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -2808,11 +2927,11 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -2820,7 +2939,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -2828,7 +2947,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2836,7 +2955,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2848,11 +2967,11 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2860,7 +2979,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2868,7 +2987,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D20" s="3"/>
     </row>
@@ -2876,7 +2995,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D21" s="7"/>
     </row>
@@ -2888,7 +3007,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="8" t="s">
@@ -2911,13 +3030,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8FB0CA-1985-4F21-A5BE-4FC466FA8C2A}">
-  <dimension ref="A2:H434"/>
+  <dimension ref="A2:H492"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C295" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E359" sqref="E359"/>
+      <selection pane="bottomRight" activeCell="E297" sqref="E297:E298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2929,459 +3048,455 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="13"/>
+      <c r="A3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="17"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="3" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="3" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="3" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="3" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="25"/>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="13"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="3" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="3" t="s">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="3" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="3" t="s">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="3" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="3" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -3389,10 +3504,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="3" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
@@ -3400,935 +3515,937 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="25"/>
       <c r="C45" s="3" t="s">
-        <v>50</v>
+        <v>297</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B47" s="13"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="3" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="12"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="12"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="12"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="12"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="3" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="12"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="3" t="s">
-        <v>55</v>
+        <v>299</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="12"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="3" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="12"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="12"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="3" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="12"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="3" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="12"/>
-      <c r="B57" s="14"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="12"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="12"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="3" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="12"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="3" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="12"/>
-      <c r="B61" s="14"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="3" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="12"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="3" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="12"/>
-      <c r="B63" s="14"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="12"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="3" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="12"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="3" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="12"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="3" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="12"/>
-      <c r="B67" s="14"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="3" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="12"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="3" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="12"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="12"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="12"/>
-      <c r="B71" s="15"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="18"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="20"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B73" s="11"/>
+      <c r="A73" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" s="16"/>
       <c r="C73" s="3" t="s">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="12"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="3" t="s">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="12"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="12"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="3" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="12"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="3" t="s">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="12"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="12"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="3" t="s">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="12"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="3" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="12"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="3" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="12"/>
-      <c r="B82" s="11"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="3" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="12"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="3" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="12"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="3" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="12"/>
-      <c r="B85" s="11"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="3" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="12"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="3" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="12"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="12"/>
-      <c r="B88" s="11"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="12"/>
-      <c r="B89" s="11"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="3" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="12"/>
-      <c r="B90" s="11"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="3" t="s">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="12"/>
-      <c r="B91" s="11"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="3" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="12"/>
-      <c r="B92" s="11"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="12"/>
-      <c r="B93" s="11"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="3" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="12"/>
-      <c r="B94" s="11"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="3" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="12"/>
-      <c r="B95" s="11"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="3" t="s">
-        <v>206</v>
+        <v>306</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="12"/>
-      <c r="B96" s="11"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="3" t="s">
-        <v>207</v>
+        <v>308</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="12"/>
-      <c r="B97" s="11"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="12"/>
-      <c r="B98" s="11"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="12"/>
-      <c r="B99" s="11"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="12"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="3" t="s">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="12"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="3" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="12"/>
-      <c r="B102" s="11"/>
+      <c r="A102" s="17"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="3" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="12"/>
-      <c r="B103" s="11"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="3" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="12"/>
-      <c r="B104" s="11"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="3" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="12"/>
-      <c r="B105" s="11"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="3" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="19"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="21"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B107" s="13"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="3" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="12"/>
-      <c r="B108" s="14"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="3" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="12"/>
-      <c r="B109" s="14"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="12"/>
-      <c r="B110" s="14"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="3" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="12"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A111" s="26"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="28"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="12"/>
-      <c r="B112" s="14"/>
+      <c r="A112" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" s="25"/>
       <c r="C112" s="3" t="s">
-        <v>219</v>
+        <v>85</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="12"/>
-      <c r="B113" s="14"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="3" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="12"/>
-      <c r="B114" s="14"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="3" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="12"/>
-      <c r="B115" s="14"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="3" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="12"/>
-      <c r="B116" s="14"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="12"/>
-      <c r="B117" s="15"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="3" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="19"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="21"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B119" s="14"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="3" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="12"/>
-      <c r="B120" s="14"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="3" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="12"/>
-      <c r="B121" s="14"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="3" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="12"/>
-      <c r="B122" s="14"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="24"/>
       <c r="C122" s="3" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="12"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="A123" s="26"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="28"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="12"/>
-      <c r="B124" s="14"/>
+      <c r="A124" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B124" s="23"/>
       <c r="C124" s="3" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="12"/>
-      <c r="B125" s="15"/>
+      <c r="A125" s="17"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="19"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="21"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="B127" s="26"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="3" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
+      <c r="A128" s="17"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="3" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="27"/>
-      <c r="B129" s="27"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="3" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
@@ -4336,10 +4453,10 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="27"/>
-      <c r="B130" s="27"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
@@ -4347,393 +4464,391 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="27"/>
+      <c r="A131" s="26"/>
       <c r="B131" s="27"/>
-      <c r="C131" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="28"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
+      <c r="A132" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B132" s="21"/>
       <c r="C132" s="3" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
+      <c r="A133" s="22"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="3" t="s">
-        <v>55</v>
+        <v>311</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="3" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="3" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
+      <c r="A137" s="22"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="3" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="3" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
+      <c r="A139" s="22"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="3" t="s">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="3" t="s">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="3" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="27"/>
-      <c r="B142" s="27"/>
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="3" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
+      <c r="A143" s="22"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
+      <c r="A144" s="22"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="3" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
+      <c r="A145" s="22"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="3" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="27"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="28" t="s">
-        <v>236</v>
+      <c r="A146" s="22"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="28" t="s">
-        <v>179</v>
+      <c r="E146" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="28" t="s">
-        <v>237</v>
+      <c r="A147" s="22"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D147" s="3"/>
-      <c r="E147" s="28" t="s">
-        <v>179</v>
+      <c r="E147" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="27"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="28" t="s">
-        <v>238</v>
+      <c r="A148" s="22"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D148" s="3"/>
-      <c r="E148" s="28" t="s">
-        <v>239</v>
+      <c r="E148" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="27"/>
-      <c r="B149" s="27"/>
+      <c r="A149" s="22"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
+      <c r="A150" s="22"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
+      <c r="A151" s="22"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="3" t="s">
-        <v>240</v>
+      <c r="A152" s="22"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="D152" s="3"/>
-      <c r="E152" s="3" t="s">
-        <v>174</v>
+      <c r="E152" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="27"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="3" t="s">
-        <v>241</v>
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="D153" s="3"/>
-      <c r="E153" s="3" t="s">
-        <v>174</v>
+      <c r="E153" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="27"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="3" t="s">
-        <v>242</v>
+      <c r="A154" s="22"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="D154" s="3"/>
-      <c r="E154" s="3" t="s">
-        <v>174</v>
+      <c r="E154" s="15" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="22"/>
-      <c r="B155" s="25"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="24"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B156" s="13"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="3" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="12"/>
-      <c r="B157" s="14"/>
+      <c r="A157" s="22"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="3" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="12"/>
-      <c r="B158" s="14"/>
+      <c r="A158" s="22"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="3" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="12"/>
-      <c r="B159" s="14"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="3" t="s">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="12"/>
-      <c r="B160" s="14"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="3" t="s">
-        <v>50</v>
+        <v>312</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="12"/>
-      <c r="B161" s="14"/>
+      <c r="A161" s="22"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="3" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="12"/>
+      <c r="A162" s="11"/>
       <c r="B162" s="14"/>
-      <c r="C162" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="13"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="12"/>
-      <c r="B163" s="14"/>
+      <c r="A163" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B163" s="25"/>
       <c r="C163" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="12"/>
-      <c r="B164" s="14"/>
+      <c r="A164" s="17"/>
+      <c r="B164" s="23"/>
       <c r="C164" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="12"/>
-      <c r="B165" s="14"/>
+      <c r="A165" s="17"/>
+      <c r="B165" s="23"/>
       <c r="C165" s="3" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="12"/>
-      <c r="B166" s="14"/>
+      <c r="A166" s="17"/>
+      <c r="B166" s="23"/>
       <c r="C166" s="3" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3" t="s">
@@ -4741,10 +4856,10 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="12"/>
-      <c r="B167" s="14"/>
+      <c r="A167" s="17"/>
+      <c r="B167" s="23"/>
       <c r="C167" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3" t="s">
@@ -4752,10 +4867,10 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="12"/>
-      <c r="B168" s="14"/>
+      <c r="A168" s="17"/>
+      <c r="B168" s="23"/>
       <c r="C168" s="3" t="s">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3" t="s">
@@ -4763,2736 +4878,2736 @@
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="12"/>
-      <c r="B169" s="14"/>
+      <c r="A169" s="17"/>
+      <c r="B169" s="23"/>
       <c r="C169" s="3" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3" t="s">
-        <v>174</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="12"/>
-      <c r="B170" s="14"/>
+      <c r="A170" s="17"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="3" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="12"/>
-      <c r="B171" s="15"/>
+      <c r="A171" s="17"/>
+      <c r="B171" s="23"/>
       <c r="C171" s="3" t="s">
-        <v>247</v>
+        <v>92</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="20"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="21"/>
+      <c r="A172" s="17"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B173" s="12"/>
-      <c r="C173" s="8" t="s">
-        <v>249</v>
+      <c r="A173" s="17"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="8" t="s">
-        <v>250</v>
+      <c r="A174" s="17"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="8" t="s">
-        <v>251</v>
+      <c r="A175" s="17"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="8" t="s">
-        <v>252</v>
+      <c r="A176" s="17"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="8" t="s">
-        <v>253</v>
+      <c r="A177" s="17"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="12"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="8" t="s">
-        <v>254</v>
+      <c r="A178" s="17"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="8" t="s">
-        <v>255</v>
+      <c r="A179" s="17"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="A180" s="26"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="28"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12"/>
+      <c r="A181" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B181" s="17"/>
       <c r="C181" s="8" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="17"/>
       <c r="C182" s="8" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12"/>
+      <c r="A183" s="17"/>
+      <c r="B183" s="17"/>
       <c r="C183" s="8" t="s">
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
+      <c r="A184" s="17"/>
+      <c r="B184" s="17"/>
       <c r="C184" s="8" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12"/>
+      <c r="A185" s="17"/>
+      <c r="B185" s="17"/>
       <c r="C185" s="8" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="16"/>
+      <c r="A186" s="17"/>
       <c r="B186" s="17"/>
-      <c r="C186" s="17"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="18"/>
+      <c r="C186" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B187" s="13"/>
-      <c r="C187" s="3" t="s">
-        <v>132</v>
+      <c r="A187" s="17"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="12"/>
-      <c r="B188" s="14"/>
-      <c r="C188" s="3" t="s">
-        <v>118</v>
+      <c r="A188" s="17"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="12"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="3" t="s">
-        <v>76</v>
+      <c r="A189" s="17"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="12"/>
-      <c r="B190" s="14"/>
-      <c r="C190" s="3" t="s">
-        <v>133</v>
+      <c r="A190" s="17"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="12"/>
-      <c r="B191" s="14"/>
-      <c r="C191" s="3" t="s">
-        <v>50</v>
+      <c r="A191" s="17"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="12"/>
-      <c r="B192" s="14"/>
-      <c r="C192" s="3" t="s">
-        <v>262</v>
+      <c r="A192" s="17"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="12"/>
-      <c r="B193" s="14"/>
-      <c r="C193" s="3" t="s">
-        <v>116</v>
+      <c r="A193" s="17"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="12"/>
-      <c r="B194" s="14"/>
-      <c r="C194" s="3" t="s">
-        <v>263</v>
+      <c r="A194" s="17"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="12"/>
-      <c r="B195" s="14"/>
-      <c r="C195" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A195" s="18"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="20"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="12"/>
-      <c r="B196" s="14"/>
-      <c r="C196" s="3" t="s">
-        <v>132</v>
+      <c r="A196" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B196" s="17"/>
+      <c r="C196" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3" t="s">
-        <v>47</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="12"/>
-      <c r="B197" s="14"/>
-      <c r="C197" s="3" t="s">
-        <v>134</v>
+      <c r="A197" s="17"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3" t="s">
-        <v>47</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="12"/>
-      <c r="B198" s="14"/>
-      <c r="C198" s="3" t="s">
-        <v>135</v>
+      <c r="A198" s="17"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3" t="s">
-        <v>47</v>
+        <v>304</v>
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="12"/>
-      <c r="B199" s="14"/>
-      <c r="C199" s="3" t="s">
-        <v>118</v>
+      <c r="A199" s="17"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3" t="s">
-        <v>47</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="12"/>
-      <c r="B200" s="14"/>
-      <c r="C200" s="3" t="s">
-        <v>136</v>
+      <c r="A200" s="17"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="12"/>
-      <c r="B201" s="14"/>
-      <c r="C201" s="3" t="s">
-        <v>76</v>
+      <c r="A201" s="17"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="12"/>
-      <c r="B202" s="14"/>
-      <c r="C202" s="3" t="s">
-        <v>57</v>
+      <c r="A202" s="17"/>
+      <c r="B202" s="17"/>
+      <c r="C202" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="12"/>
-      <c r="B203" s="14"/>
-      <c r="C203" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="A203" s="18"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="20"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="12"/>
-      <c r="B204" s="14"/>
+      <c r="A204" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B204" s="25"/>
       <c r="C204" s="3" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="12"/>
-      <c r="B205" s="14"/>
+      <c r="A205" s="17"/>
+      <c r="B205" s="23"/>
       <c r="C205" s="3" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="12"/>
-      <c r="B206" s="14"/>
+      <c r="A206" s="17"/>
+      <c r="B206" s="23"/>
       <c r="C206" s="3" t="s">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="12"/>
-      <c r="B207" s="15"/>
+      <c r="A207" s="17"/>
+      <c r="B207" s="23"/>
       <c r="C207" s="3" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="16"/>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="18"/>
+      <c r="A208" s="17"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B209" s="12"/>
-      <c r="C209" s="8" t="s">
-        <v>267</v>
+      <c r="A209" s="17"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="D209" s="3"/>
-      <c r="E209" s="8" t="s">
-        <v>179</v>
+      <c r="E209" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="12"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="8" t="s">
-        <v>268</v>
+      <c r="A210" s="17"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="D210" s="3"/>
-      <c r="E210" s="8" t="s">
-        <v>179</v>
+      <c r="E210" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="12"/>
-      <c r="B211" s="12"/>
-      <c r="C211" s="8" t="s">
-        <v>269</v>
+      <c r="A211" s="17"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="D211" s="3"/>
-      <c r="E211" s="8" t="s">
-        <v>179</v>
+      <c r="E211" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="12"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="8" t="s">
-        <v>270</v>
+      <c r="A212" s="17"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="D212" s="3"/>
-      <c r="E212" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H212" t="s">
-        <v>278</v>
+      <c r="E212" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12"/>
-      <c r="C213" s="8" t="s">
-        <v>271</v>
+      <c r="A213" s="17"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D213" s="3"/>
-      <c r="E213" s="8" t="s">
-        <v>179</v>
+      <c r="E213" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="12"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="8" t="s">
-        <v>272</v>
+      <c r="A214" s="17"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D214" s="3"/>
-      <c r="E214" s="8" t="s">
-        <v>179</v>
+      <c r="E214" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="12"/>
-      <c r="B215" s="12"/>
-      <c r="C215" s="8" t="s">
-        <v>218</v>
+      <c r="A215" s="17"/>
+      <c r="B215" s="23"/>
+      <c r="C215" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="12"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="8" t="s">
-        <v>273</v>
+      <c r="A216" s="17"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="12"/>
-      <c r="B217" s="12"/>
-      <c r="C217" s="8" t="s">
-        <v>215</v>
+      <c r="A217" s="17"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="12"/>
-      <c r="B218" s="12"/>
-      <c r="C218" s="8" t="s">
-        <v>213</v>
+      <c r="A218" s="17"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="12"/>
-      <c r="B219" s="12"/>
-      <c r="C219" s="8" t="s">
-        <v>257</v>
+      <c r="A219" s="17"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="16"/>
-      <c r="B220" s="17"/>
-      <c r="C220" s="17"/>
-      <c r="D220" s="17"/>
-      <c r="E220" s="18"/>
+      <c r="A220" s="17"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B221" s="12"/>
-      <c r="C221" s="8" t="s">
-        <v>267</v>
+      <c r="A221" s="17"/>
+      <c r="B221" s="23"/>
+      <c r="C221" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
+      </c>
+      <c r="H221" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="12"/>
-      <c r="B222" s="12"/>
-      <c r="C222" s="8" t="s">
-        <v>279</v>
+      <c r="A222" s="17"/>
+      <c r="B222" s="24"/>
+      <c r="C222" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="12"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="A223" s="18"/>
+      <c r="B223" s="19"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="19"/>
+      <c r="E223" s="20"/>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="12"/>
-      <c r="B224" s="12"/>
+      <c r="A224" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B224" s="17"/>
       <c r="C224" s="8" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="D224" s="3"/>
-      <c r="E224" s="3" t="s">
-        <v>174</v>
+      <c r="E224" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="12"/>
-      <c r="B225" s="12"/>
+      <c r="A225" s="17"/>
+      <c r="B225" s="17"/>
       <c r="C225" s="8" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D225" s="3"/>
-      <c r="E225" s="3" t="s">
-        <v>174</v>
+      <c r="E225" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="12"/>
-      <c r="B226" s="12"/>
+      <c r="A226" s="17"/>
+      <c r="B226" s="17"/>
       <c r="C226" s="8" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="D226" s="3"/>
-      <c r="E226" s="3" t="s">
-        <v>174</v>
+      <c r="E226" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
+      <c r="A227" s="17"/>
+      <c r="B227" s="17"/>
       <c r="C227" s="8" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="D227" s="3"/>
-      <c r="E227" s="3" t="s">
-        <v>174</v>
+      <c r="E227" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
+      <c r="A228" s="17"/>
+      <c r="B228" s="17"/>
       <c r="C228" s="8" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="D228" s="3"/>
-      <c r="E228" s="3" t="s">
-        <v>179</v>
+      <c r="E228" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="12"/>
-      <c r="B229" s="12"/>
+      <c r="A229" s="17"/>
+      <c r="B229" s="17"/>
       <c r="C229" s="8" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="D229" s="3"/>
-      <c r="E229" s="3" t="s">
-        <v>179</v>
+      <c r="E229" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="12"/>
-      <c r="B230" s="12"/>
+      <c r="A230" s="17"/>
+      <c r="B230" s="17"/>
       <c r="C230" s="8" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="12"/>
-      <c r="B231" s="12"/>
+      <c r="A231" s="17"/>
+      <c r="B231" s="17"/>
       <c r="C231" s="8" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="12"/>
-      <c r="B232" s="12"/>
+      <c r="A232" s="17"/>
+      <c r="B232" s="17"/>
       <c r="C232" s="8" t="s">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
+      <c r="A233" s="17"/>
+      <c r="B233" s="17"/>
       <c r="C233" s="8" t="s">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="12"/>
-      <c r="B234" s="12"/>
+      <c r="A234" s="17"/>
+      <c r="B234" s="17"/>
       <c r="C234" s="8" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="12"/>
-      <c r="B235" s="12"/>
-      <c r="C235" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="A235" s="18"/>
+      <c r="B235" s="19"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="19"/>
+      <c r="E235" s="20"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="12"/>
-      <c r="B236" s="12"/>
+      <c r="A236" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B236" s="17"/>
       <c r="C236" s="8" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="12"/>
-      <c r="B237" s="12"/>
+      <c r="A237" s="17"/>
+      <c r="B237" s="17"/>
       <c r="C237" s="8" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237" s="3" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="12"/>
-      <c r="B238" s="12"/>
+      <c r="A238" s="17"/>
+      <c r="B238" s="17"/>
       <c r="C238" s="8" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="12"/>
-      <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
-      <c r="E239" s="12"/>
+      <c r="A239" s="17"/>
+      <c r="B239" s="17"/>
+      <c r="C239" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B240" s="12"/>
+      <c r="A240" s="17"/>
+      <c r="B240" s="17"/>
       <c r="C240" s="8" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="D240" s="3"/>
-      <c r="E240" s="8" t="s">
-        <v>179</v>
+      <c r="E240" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="12"/>
-      <c r="B241" s="12"/>
+      <c r="A241" s="17"/>
+      <c r="B241" s="17"/>
       <c r="C241" s="8" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D241" s="3"/>
-      <c r="E241" s="8" t="s">
-        <v>179</v>
+      <c r="E241" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="12"/>
-      <c r="B242" s="12"/>
+      <c r="A242" s="17"/>
+      <c r="B242" s="17"/>
       <c r="C242" s="8" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="D242" s="3"/>
-      <c r="E242" s="8" t="s">
-        <v>179</v>
+      <c r="E242" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="12"/>
-      <c r="B243" s="12"/>
+      <c r="A243" s="17"/>
+      <c r="B243" s="17"/>
       <c r="C243" s="8" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="D243" s="3"/>
-      <c r="E243" s="8" t="s">
-        <v>179</v>
+      <c r="E243" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="12"/>
-      <c r="B244" s="12"/>
+      <c r="A244" s="17"/>
+      <c r="B244" s="17"/>
       <c r="C244" s="8" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="D244" s="3"/>
-      <c r="E244" s="8" t="s">
-        <v>179</v>
+      <c r="E244" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="12"/>
-      <c r="B245" s="12"/>
+      <c r="A245" s="17"/>
+      <c r="B245" s="17"/>
       <c r="C245" s="8" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="D245" s="3"/>
-      <c r="E245" s="8" t="s">
-        <v>179</v>
+      <c r="E245" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="12"/>
-      <c r="B246" s="12"/>
+      <c r="A246" s="17"/>
+      <c r="B246" s="17"/>
       <c r="C246" s="8" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
       <c r="D246" s="3"/>
-      <c r="E246" s="8" t="s">
-        <v>179</v>
+      <c r="E246" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="12"/>
-      <c r="B247" s="12"/>
+      <c r="A247" s="17"/>
+      <c r="B247" s="17"/>
       <c r="C247" s="8" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="D247" s="3"/>
-      <c r="E247" s="8" t="s">
-        <v>179</v>
+      <c r="E247" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="12"/>
-      <c r="B248" s="12"/>
+      <c r="A248" s="17"/>
+      <c r="B248" s="17"/>
       <c r="C248" s="8" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="D248" s="3"/>
-      <c r="E248" s="8" t="s">
-        <v>174</v>
+      <c r="E248" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="12"/>
-      <c r="B249" s="12"/>
+      <c r="A249" s="17"/>
+      <c r="B249" s="17"/>
       <c r="C249" s="8" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="D249" s="3"/>
-      <c r="E249" s="8" t="s">
-        <v>174</v>
+      <c r="E249" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="16"/>
+      <c r="A250" s="17"/>
       <c r="B250" s="17"/>
-      <c r="C250" s="17"/>
-      <c r="D250" s="17"/>
-      <c r="E250" s="18"/>
+      <c r="C250" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B251" s="12"/>
+      <c r="A251" s="17"/>
+      <c r="B251" s="17"/>
       <c r="C251" s="8" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="D251" s="3"/>
       <c r="E251" s="3" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="12"/>
-      <c r="B252" s="12"/>
+      <c r="A252" s="17"/>
+      <c r="B252" s="17"/>
       <c r="C252" s="8" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="D252" s="3"/>
       <c r="E252" s="3" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="12"/>
-      <c r="B253" s="12"/>
+      <c r="A253" s="17"/>
+      <c r="B253" s="17"/>
       <c r="C253" s="8" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="D253" s="3"/>
       <c r="E253" s="3" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="12"/>
-      <c r="B254" s="12"/>
+      <c r="A254" s="17"/>
+      <c r="B254" s="17"/>
       <c r="C254" s="8" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3" t="s">
-        <v>174</v>
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="12"/>
-      <c r="B255" s="12"/>
+      <c r="A255" s="17"/>
+      <c r="B255" s="17"/>
       <c r="C255" s="8" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="D255" s="3"/>
       <c r="E255" s="3" t="s">
-        <v>174</v>
+        <v>310</v>
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="12"/>
-      <c r="B256" s="12"/>
-      <c r="C256" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="A256" s="18"/>
+      <c r="B256" s="19"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="19"/>
+      <c r="E256" s="20"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="12"/>
-      <c r="B257" s="12"/>
+      <c r="A257" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B257" s="17"/>
       <c r="C257" s="8" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="D257" s="3"/>
       <c r="E257" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="12"/>
-      <c r="B258" s="12"/>
+      <c r="A258" s="17"/>
+      <c r="B258" s="17"/>
       <c r="C258" s="8" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="12"/>
-      <c r="B259" s="12"/>
+      <c r="A259" s="17"/>
+      <c r="B259" s="17"/>
       <c r="C259" s="8" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="D259" s="3"/>
       <c r="E259" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="12"/>
-      <c r="B260" s="12"/>
+      <c r="A260" s="17"/>
+      <c r="B260" s="17"/>
       <c r="C260" s="8" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="D260" s="3"/>
       <c r="E260" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="12"/>
-      <c r="B261" s="12"/>
+      <c r="A261" s="17"/>
+      <c r="B261" s="17"/>
       <c r="C261" s="8" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="12"/>
-      <c r="B262" s="12"/>
+      <c r="A262" s="17"/>
+      <c r="B262" s="17"/>
       <c r="C262" s="8" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="D262" s="3"/>
       <c r="E262" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="12"/>
-      <c r="B263" s="12"/>
+      <c r="A263" s="17"/>
+      <c r="B263" s="17"/>
       <c r="C263" s="8" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="12"/>
-      <c r="B264" s="12"/>
+      <c r="A264" s="17"/>
+      <c r="B264" s="17"/>
       <c r="C264" s="8" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="12"/>
-      <c r="B265" s="12"/>
+      <c r="A265" s="17"/>
+      <c r="B265" s="17"/>
       <c r="C265" s="8" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="D265" s="3"/>
       <c r="E265" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="12"/>
-      <c r="B266" s="12"/>
-      <c r="C266" s="12"/>
-      <c r="D266" s="12"/>
-      <c r="E266" s="12"/>
+      <c r="A266" s="17"/>
+      <c r="B266" s="17"/>
+      <c r="C266" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D266" s="3"/>
+      <c r="E266" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B267" s="12"/>
+      <c r="A267" s="17"/>
+      <c r="B267" s="17"/>
       <c r="C267" s="8" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="12"/>
-      <c r="B268" s="12"/>
+      <c r="A268" s="17"/>
+      <c r="B268" s="17"/>
       <c r="C268" s="8" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="12"/>
-      <c r="B269" s="12"/>
+      <c r="A269" s="17"/>
+      <c r="B269" s="17"/>
       <c r="C269" s="8" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="12"/>
-      <c r="B270" s="12"/>
+      <c r="A270" s="17"/>
+      <c r="B270" s="17"/>
       <c r="C270" s="8" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="12"/>
-      <c r="B271" s="12"/>
+      <c r="A271" s="17"/>
+      <c r="B271" s="17"/>
       <c r="C271" s="8" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="12"/>
-      <c r="B272" s="12"/>
+      <c r="A272" s="17"/>
+      <c r="B272" s="17"/>
       <c r="C272" s="8" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="D272" s="3"/>
       <c r="E272" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="12"/>
-      <c r="B273" s="12"/>
+      <c r="A273" s="17"/>
+      <c r="B273" s="17"/>
       <c r="C273" s="8" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D273" s="3"/>
       <c r="E273" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="16"/>
+      <c r="A274" s="17"/>
       <c r="B274" s="17"/>
-      <c r="C274" s="17"/>
-      <c r="D274" s="17"/>
-      <c r="E274" s="18"/>
+      <c r="C274" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="12" t="s">
+      <c r="A275" s="17"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
+      <c r="D275" s="17"/>
+      <c r="E275" s="17"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B276" s="17"/>
+      <c r="C276" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D276" s="3"/>
+      <c r="E276" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="17"/>
+      <c r="B277" s="17"/>
+      <c r="C277" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D277" s="3"/>
+      <c r="E277" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="17"/>
+      <c r="B278" s="17"/>
+      <c r="C278" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D278" s="3"/>
+      <c r="E278" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="17"/>
+      <c r="B279" s="17"/>
+      <c r="C279" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D279" s="3"/>
+      <c r="E279" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="17"/>
+      <c r="B280" s="17"/>
+      <c r="C280" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D280" s="3"/>
+      <c r="E280" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="17"/>
+      <c r="B281" s="17"/>
+      <c r="C281" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D281" s="3"/>
+      <c r="E281" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="17"/>
+      <c r="B282" s="17"/>
+      <c r="C282" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D282" s="3"/>
+      <c r="E282" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="17"/>
+      <c r="B283" s="17"/>
+      <c r="C283" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D283" s="3"/>
+      <c r="E283" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="17"/>
+      <c r="B284" s="17"/>
+      <c r="C284" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D284" s="3"/>
+      <c r="E284" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B275" s="12"/>
-      <c r="C275" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="12"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="12"/>
-      <c r="B277" s="12"/>
-      <c r="C277" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="12"/>
-      <c r="B278" s="12"/>
-      <c r="C278" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="12"/>
-      <c r="B279" s="12"/>
-      <c r="C279" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="12"/>
-      <c r="B280" s="12"/>
-      <c r="C280" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="12"/>
-      <c r="B281" s="12"/>
-      <c r="C281" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="12"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="12"/>
-      <c r="B283" s="12"/>
-      <c r="C283" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="12"/>
-      <c r="B284" s="12"/>
-      <c r="C284" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D284" s="3"/>
-      <c r="E284" s="3" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="12"/>
-      <c r="B285" s="12"/>
+      <c r="A285" s="17"/>
+      <c r="B285" s="17"/>
       <c r="C285" s="8" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="D285" s="3"/>
-      <c r="E285" s="3" t="s">
-        <v>174</v>
+      <c r="E285" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="12"/>
-      <c r="B286" s="12"/>
-      <c r="C286" s="12"/>
-      <c r="D286" s="12"/>
-      <c r="E286" s="12"/>
+      <c r="A286" s="18"/>
+      <c r="B286" s="19"/>
+      <c r="C286" s="19"/>
+      <c r="D286" s="19"/>
+      <c r="E286" s="20"/>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B287" s="12"/>
+      <c r="A287" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B287" s="17"/>
       <c r="C287" s="8" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="D287" s="3"/>
       <c r="E287" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="12"/>
-      <c r="B288" s="12"/>
+      <c r="A288" s="17"/>
+      <c r="B288" s="17"/>
       <c r="C288" s="8" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="D288" s="3"/>
       <c r="E288" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="12"/>
-      <c r="B289" s="12"/>
+      <c r="A289" s="17"/>
+      <c r="B289" s="17"/>
       <c r="C289" s="8" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="D289" s="3"/>
       <c r="E289" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="12"/>
-      <c r="B290" s="12"/>
+      <c r="A290" s="17"/>
+      <c r="B290" s="17"/>
       <c r="C290" s="8" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="D290" s="3"/>
       <c r="E290" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="12"/>
-      <c r="B291" s="12"/>
+      <c r="A291" s="17"/>
+      <c r="B291" s="17"/>
       <c r="C291" s="8" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D291" s="3"/>
       <c r="E291" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="12"/>
-      <c r="B292" s="12"/>
+      <c r="A292" s="17"/>
+      <c r="B292" s="17"/>
       <c r="C292" s="8" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="D292" s="3"/>
       <c r="E292" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="12"/>
-      <c r="B293" s="12"/>
+      <c r="A293" s="17"/>
+      <c r="B293" s="17"/>
       <c r="C293" s="8" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="D293" s="3"/>
       <c r="E293" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="12"/>
-      <c r="B294" s="12"/>
+      <c r="A294" s="17"/>
+      <c r="B294" s="17"/>
       <c r="C294" s="8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D294" s="3"/>
       <c r="E294" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="12"/>
-      <c r="B295" s="12"/>
+      <c r="A295" s="17"/>
+      <c r="B295" s="17"/>
       <c r="C295" s="8" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D295" s="3"/>
       <c r="E295" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="12"/>
-      <c r="B296" s="12"/>
+      <c r="A296" s="17"/>
+      <c r="B296" s="17"/>
       <c r="C296" s="8" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="D296" s="3"/>
       <c r="E296" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="12"/>
-      <c r="B297" s="12"/>
-      <c r="C297" s="12"/>
-      <c r="D297" s="12"/>
-      <c r="E297" s="12"/>
+      <c r="A297" s="17"/>
+      <c r="B297" s="17"/>
+      <c r="C297" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="298" spans="1:5">
-      <c r="A298" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B298" s="12"/>
+      <c r="A298" s="17"/>
+      <c r="B298" s="17"/>
       <c r="C298" s="8" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="299" spans="1:5">
-      <c r="A299" s="12"/>
-      <c r="B299" s="12"/>
+      <c r="A299" s="17"/>
+      <c r="B299" s="17"/>
       <c r="C299" s="8" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="D299" s="3"/>
       <c r="E299" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="300" spans="1:5">
-      <c r="A300" s="12"/>
-      <c r="B300" s="12"/>
+      <c r="A300" s="17"/>
+      <c r="B300" s="17"/>
       <c r="C300" s="8" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301" s="12"/>
-      <c r="B301" s="12"/>
+      <c r="A301" s="17"/>
+      <c r="B301" s="17"/>
       <c r="C301" s="8" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="D301" s="3"/>
       <c r="E301" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302" s="12"/>
-      <c r="B302" s="12"/>
-      <c r="C302" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D302" s="3"/>
-      <c r="E302" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="A302" s="17"/>
+      <c r="B302" s="17"/>
+      <c r="C302" s="17"/>
+      <c r="D302" s="17"/>
+      <c r="E302" s="17"/>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303" s="12"/>
-      <c r="B303" s="12"/>
+      <c r="A303" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B303" s="17"/>
       <c r="C303" s="8" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304" s="12"/>
-      <c r="B304" s="12"/>
+      <c r="A304" s="17"/>
+      <c r="B304" s="17"/>
       <c r="C304" s="8" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="D304" s="3"/>
       <c r="E304" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305" s="12"/>
-      <c r="B305" s="12"/>
+      <c r="A305" s="17"/>
+      <c r="B305" s="17"/>
       <c r="C305" s="8" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="D305" s="3"/>
       <c r="E305" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306" s="12"/>
-      <c r="B306" s="12"/>
-      <c r="C306" s="12"/>
-      <c r="D306" s="12"/>
-      <c r="E306" s="12"/>
+      <c r="A306" s="17"/>
+      <c r="B306" s="17"/>
+      <c r="C306" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D306" s="3"/>
+      <c r="E306" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="307" spans="1:5">
-      <c r="A307" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B307" s="12"/>
+      <c r="A307" s="17"/>
+      <c r="B307" s="17"/>
       <c r="C307" s="8" t="s">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="D307" s="3"/>
       <c r="E307" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="308" spans="1:5">
-      <c r="A308" s="12"/>
-      <c r="B308" s="12"/>
+      <c r="A308" s="17"/>
+      <c r="B308" s="17"/>
       <c r="C308" s="8" t="s">
-        <v>311</v>
+        <v>194</v>
       </c>
       <c r="D308" s="3"/>
       <c r="E308" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="309" spans="1:5">
-      <c r="A309" s="12"/>
-      <c r="B309" s="12"/>
+      <c r="A309" s="17"/>
+      <c r="B309" s="17"/>
       <c r="C309" s="8" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="310" spans="1:5">
-      <c r="A310" s="12"/>
-      <c r="B310" s="12"/>
-      <c r="C310" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="A310" s="18"/>
+      <c r="B310" s="19"/>
+      <c r="C310" s="19"/>
+      <c r="D310" s="19"/>
+      <c r="E310" s="20"/>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311" s="12"/>
-      <c r="B311" s="12"/>
+      <c r="A311" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B311" s="17"/>
       <c r="C311" s="8" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="D311" s="3"/>
       <c r="E311" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312" s="12"/>
-      <c r="B312" s="12"/>
+      <c r="A312" s="17"/>
+      <c r="B312" s="17"/>
       <c r="C312" s="8" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="D312" s="3"/>
       <c r="E312" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313" s="12"/>
-      <c r="B313" s="12"/>
+      <c r="A313" s="17"/>
+      <c r="B313" s="17"/>
       <c r="C313" s="8" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="D313" s="3"/>
       <c r="E313" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="314" spans="1:5">
-      <c r="A314" s="12"/>
-      <c r="B314" s="12"/>
+      <c r="A314" s="17"/>
+      <c r="B314" s="17"/>
       <c r="C314" s="8" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="D314" s="3"/>
       <c r="E314" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" s="16"/>
+      <c r="A315" s="17"/>
       <c r="B315" s="17"/>
-      <c r="C315" s="17"/>
-      <c r="D315" s="17"/>
-      <c r="E315" s="18"/>
+      <c r="C315" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D315" s="3"/>
+      <c r="E315" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B316" s="13"/>
-      <c r="C316" s="3" t="s">
-        <v>112</v>
+      <c r="A316" s="17"/>
+      <c r="B316" s="17"/>
+      <c r="C316" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="D316" s="3"/>
       <c r="E316" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317" s="12"/>
-      <c r="B317" s="14"/>
-      <c r="C317" s="3" t="s">
-        <v>113</v>
+      <c r="A317" s="17"/>
+      <c r="B317" s="17"/>
+      <c r="C317" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="D317" s="3"/>
       <c r="E317" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="12"/>
-      <c r="B318" s="14"/>
-      <c r="C318" s="3" t="s">
-        <v>114</v>
+      <c r="A318" s="17"/>
+      <c r="B318" s="17"/>
+      <c r="C318" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319" s="12"/>
-      <c r="B319" s="14"/>
-      <c r="C319" s="3" t="s">
-        <v>115</v>
+      <c r="A319" s="17"/>
+      <c r="B319" s="17"/>
+      <c r="C319" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="D319" s="3"/>
       <c r="E319" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320" s="12"/>
-      <c r="B320" s="14"/>
-      <c r="C320" s="3" t="s">
-        <v>116</v>
+      <c r="A320" s="17"/>
+      <c r="B320" s="17"/>
+      <c r="C320" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320" s="3" t="s">
-        <v>58</v>
+        <v>350</v>
       </c>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321" s="12"/>
-      <c r="B321" s="14"/>
-      <c r="C321" s="3" t="s">
-        <v>314</v>
+      <c r="A321" s="17"/>
+      <c r="B321" s="17"/>
+      <c r="C321" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" s="3" t="s">
-        <v>58</v>
+        <v>350</v>
       </c>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322" s="12"/>
-      <c r="B322" s="15"/>
-      <c r="C322" s="3" t="s">
-        <v>117</v>
+      <c r="A322" s="17"/>
+      <c r="B322" s="17"/>
+      <c r="C322" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D322" s="3"/>
       <c r="E322" s="3" t="s">
-        <v>58</v>
+        <v>304</v>
       </c>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="19"/>
-      <c r="B323" s="20"/>
-      <c r="C323" s="20"/>
-      <c r="D323" s="20"/>
-      <c r="E323" s="21"/>
+      <c r="A323" s="17"/>
+      <c r="B323" s="17"/>
+      <c r="C323" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D323" s="3"/>
+      <c r="E323" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B324" s="12"/>
+      <c r="A324" s="17"/>
+      <c r="B324" s="17"/>
       <c r="C324" s="8" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="D324" s="3"/>
       <c r="E324" s="3" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325" s="12"/>
-      <c r="B325" s="12"/>
+      <c r="A325" s="17"/>
+      <c r="B325" s="17"/>
       <c r="C325" s="8" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="D325" s="3"/>
       <c r="E325" s="3" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326" s="12"/>
-      <c r="B326" s="12"/>
+      <c r="A326" s="17"/>
+      <c r="B326" s="17"/>
       <c r="C326" s="8" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326" s="3" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327" s="12"/>
-      <c r="B327" s="12"/>
+      <c r="A327" s="17"/>
+      <c r="B327" s="17"/>
       <c r="C327" s="8" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="D327" s="3"/>
       <c r="E327" s="3" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328" s="12"/>
-      <c r="B328" s="12"/>
-      <c r="C328" s="12"/>
-      <c r="D328" s="12"/>
-      <c r="E328" s="12"/>
+      <c r="A328" s="17"/>
+      <c r="B328" s="17"/>
+      <c r="C328" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D328" s="3"/>
+      <c r="E328" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="329" spans="1:5">
-      <c r="A329" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B329" s="12"/>
-      <c r="C329" s="3" t="s">
-        <v>267</v>
+      <c r="A329" s="17"/>
+      <c r="B329" s="17"/>
+      <c r="C329" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329" s="3" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330" s="12"/>
-      <c r="B330" s="12"/>
-      <c r="C330" s="3" t="s">
-        <v>279</v>
+      <c r="A330" s="17"/>
+      <c r="B330" s="17"/>
+      <c r="C330" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="D330" s="3"/>
       <c r="E330" s="3" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
     </row>
     <row r="331" spans="1:5">
-      <c r="A331" s="12"/>
-      <c r="B331" s="12"/>
-      <c r="C331" s="3" t="s">
-        <v>280</v>
+      <c r="A331" s="17"/>
+      <c r="B331" s="17"/>
+      <c r="C331" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="D331" s="3"/>
       <c r="E331" s="3" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332" s="12"/>
-      <c r="B332" s="12"/>
-      <c r="C332" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D332" s="3"/>
-      <c r="E332" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="A332" s="18"/>
+      <c r="B332" s="19"/>
+      <c r="C332" s="19"/>
+      <c r="D332" s="19"/>
+      <c r="E332" s="20"/>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="12"/>
-      <c r="B333" s="12"/>
-      <c r="C333" s="3" t="s">
-        <v>285</v>
+      <c r="A333" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B333" s="17"/>
+      <c r="C333" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="D333" s="3"/>
       <c r="E333" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="334" spans="1:5">
-      <c r="A334" s="12"/>
-      <c r="B334" s="12"/>
-      <c r="C334" s="3" t="s">
-        <v>218</v>
+      <c r="A334" s="17"/>
+      <c r="B334" s="17"/>
+      <c r="C334" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D334" s="3"/>
       <c r="E334" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="335" spans="1:5">
-      <c r="A335" s="12"/>
-      <c r="B335" s="12"/>
-      <c r="C335" s="3" t="s">
-        <v>286</v>
+      <c r="A335" s="17"/>
+      <c r="B335" s="17"/>
+      <c r="C335" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D335" s="3"/>
       <c r="E335" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="12"/>
-      <c r="B336" s="12"/>
+      <c r="A336" s="17"/>
+      <c r="B336" s="17"/>
       <c r="C336" s="8" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D336" s="3"/>
       <c r="E336" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337" s="12"/>
-      <c r="B337" s="12"/>
+      <c r="A337" s="17"/>
+      <c r="B337" s="17"/>
       <c r="C337" s="8" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="D337" s="3"/>
       <c r="E337" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338" s="12"/>
-      <c r="B338" s="12"/>
+      <c r="A338" s="17"/>
+      <c r="B338" s="17"/>
       <c r="C338" s="8" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="D338" s="3"/>
       <c r="E338" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339" s="12"/>
-      <c r="B339" s="12"/>
+      <c r="A339" s="17"/>
+      <c r="B339" s="17"/>
       <c r="C339" s="8" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D339" s="3"/>
       <c r="E339" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340" s="16"/>
+      <c r="A340" s="17"/>
       <c r="B340" s="17"/>
-      <c r="C340" s="17"/>
-      <c r="D340" s="17"/>
-      <c r="E340" s="18"/>
+      <c r="C340" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="341" spans="1:5">
-      <c r="A341" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B341" s="13"/>
-      <c r="C341" s="3" t="s">
-        <v>319</v>
+      <c r="A341" s="17"/>
+      <c r="B341" s="17"/>
+      <c r="C341" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="D341" s="3"/>
       <c r="E341" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="342" spans="1:5">
-      <c r="A342" s="12"/>
-      <c r="B342" s="14"/>
-      <c r="C342" s="3" t="s">
-        <v>119</v>
+      <c r="A342" s="17"/>
+      <c r="B342" s="17"/>
+      <c r="C342" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="D342" s="3"/>
       <c r="E342" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="12"/>
-      <c r="B343" s="14"/>
-      <c r="C343" s="3" t="s">
-        <v>121</v>
+      <c r="A343" s="17"/>
+      <c r="B343" s="17"/>
+      <c r="C343" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="D343" s="3"/>
       <c r="E343" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="344" spans="1:5">
-      <c r="A344" s="12"/>
-      <c r="B344" s="14"/>
-      <c r="C344" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D344" s="3"/>
-      <c r="E344" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A344" s="17"/>
+      <c r="B344" s="17"/>
+      <c r="C344" s="17"/>
+      <c r="D344" s="17"/>
+      <c r="E344" s="17"/>
     </row>
     <row r="345" spans="1:5">
-      <c r="A345" s="12"/>
-      <c r="B345" s="14"/>
-      <c r="C345" s="3" t="s">
-        <v>48</v>
+      <c r="A345" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B345" s="17"/>
+      <c r="C345" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="D345" s="3"/>
       <c r="E345" s="3" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="12"/>
-      <c r="B346" s="14"/>
-      <c r="C346" s="3" t="s">
-        <v>50</v>
+      <c r="A346" s="17"/>
+      <c r="B346" s="17"/>
+      <c r="C346" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="D346" s="3"/>
       <c r="E346" s="3" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="347" spans="1:5">
-      <c r="A347" s="12"/>
-      <c r="B347" s="14"/>
-      <c r="C347" s="3" t="s">
-        <v>122</v>
+      <c r="A347" s="17"/>
+      <c r="B347" s="17"/>
+      <c r="C347" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="D347" s="3"/>
       <c r="E347" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" s="12"/>
-      <c r="B348" s="14"/>
-      <c r="C348" s="3" t="s">
-        <v>123</v>
+      <c r="A348" s="17"/>
+      <c r="B348" s="17"/>
+      <c r="C348" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D348" s="3"/>
       <c r="E348" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="349" spans="1:5">
-      <c r="A349" s="12"/>
-      <c r="B349" s="14"/>
-      <c r="C349" s="3" t="s">
-        <v>124</v>
+      <c r="A349" s="17"/>
+      <c r="B349" s="17"/>
+      <c r="C349" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D349" s="3"/>
       <c r="E349" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="350" spans="1:5">
-      <c r="A350" s="12"/>
-      <c r="B350" s="14"/>
-      <c r="C350" s="3" t="s">
-        <v>125</v>
+      <c r="A350" s="17"/>
+      <c r="B350" s="17"/>
+      <c r="C350" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="D350" s="3"/>
       <c r="E350" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="351" spans="1:5">
-      <c r="A351" s="12"/>
-      <c r="B351" s="14"/>
-      <c r="C351" s="3" t="s">
-        <v>126</v>
+      <c r="A351" s="17"/>
+      <c r="B351" s="17"/>
+      <c r="C351" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="D351" s="3"/>
       <c r="E351" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="352" spans="1:5">
-      <c r="A352" s="12"/>
-      <c r="B352" s="14"/>
-      <c r="C352" s="3" t="s">
-        <v>77</v>
+      <c r="A352" s="17"/>
+      <c r="B352" s="17"/>
+      <c r="C352" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="D352" s="3"/>
       <c r="E352" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="353" spans="1:5">
-      <c r="A353" s="12"/>
-      <c r="B353" s="14"/>
-      <c r="C353" s="3" t="s">
-        <v>127</v>
+      <c r="A353" s="17"/>
+      <c r="B353" s="17"/>
+      <c r="C353" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="D353" s="3"/>
       <c r="E353" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="354" spans="1:5">
-      <c r="A354" s="12"/>
-      <c r="B354" s="14"/>
-      <c r="C354" s="3" t="s">
-        <v>57</v>
+      <c r="A354" s="17"/>
+      <c r="B354" s="17"/>
+      <c r="C354" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="D354" s="3"/>
       <c r="E354" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="355" spans="1:5">
-      <c r="A355" s="12"/>
-      <c r="B355" s="14"/>
-      <c r="C355" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D355" s="3"/>
-      <c r="E355" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A355" s="17"/>
+      <c r="B355" s="17"/>
+      <c r="C355" s="17"/>
+      <c r="D355" s="17"/>
+      <c r="E355" s="17"/>
     </row>
     <row r="356" spans="1:5">
-      <c r="A356" s="12"/>
-      <c r="B356" s="14"/>
-      <c r="C356" s="3" t="s">
-        <v>128</v>
+      <c r="A356" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B356" s="17"/>
+      <c r="C356" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="D356" s="3"/>
       <c r="E356" s="3" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="357" spans="1:5">
-      <c r="A357" s="16"/>
+      <c r="A357" s="17"/>
       <c r="B357" s="17"/>
-      <c r="C357" s="17"/>
-      <c r="D357" s="17"/>
-      <c r="E357" s="18"/>
+      <c r="C357" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D357" s="3"/>
+      <c r="E357" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="358" spans="1:5">
-      <c r="A358" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B358" s="13"/>
-      <c r="C358" s="3" t="s">
-        <v>319</v>
+      <c r="A358" s="17"/>
+      <c r="B358" s="17"/>
+      <c r="C358" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D358" s="3"/>
       <c r="E358" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="12"/>
-      <c r="B359" s="14"/>
-      <c r="C359" s="3" t="s">
-        <v>320</v>
+      <c r="A359" s="17"/>
+      <c r="B359" s="17"/>
+      <c r="C359" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D359" s="3"/>
       <c r="E359" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" s="12"/>
-      <c r="B360" s="14"/>
-      <c r="C360" s="3" t="s">
-        <v>121</v>
+      <c r="A360" s="17"/>
+      <c r="B360" s="17"/>
+      <c r="C360" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="D360" s="3"/>
       <c r="E360" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" s="12"/>
-      <c r="B361" s="14"/>
-      <c r="C361" s="3" t="s">
-        <v>76</v>
+      <c r="A361" s="17"/>
+      <c r="B361" s="17"/>
+      <c r="C361" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="D361" s="3"/>
       <c r="E361" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="12"/>
-      <c r="B362" s="14"/>
-      <c r="C362" s="3" t="s">
-        <v>48</v>
+      <c r="A362" s="17"/>
+      <c r="B362" s="17"/>
+      <c r="C362" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="D362" s="3"/>
       <c r="E362" s="3" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="363" spans="1:5">
-      <c r="A363" s="12"/>
-      <c r="B363" s="14"/>
-      <c r="C363" s="3" t="s">
-        <v>50</v>
+      <c r="A363" s="17"/>
+      <c r="B363" s="17"/>
+      <c r="C363" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="D363" s="3"/>
       <c r="E363" s="3" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="364" spans="1:5">
-      <c r="A364" s="12"/>
-      <c r="B364" s="14"/>
-      <c r="C364" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D364" s="3"/>
-      <c r="E364" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A364" s="17"/>
+      <c r="B364" s="17"/>
+      <c r="C364" s="17"/>
+      <c r="D364" s="17"/>
+      <c r="E364" s="17"/>
     </row>
     <row r="365" spans="1:5">
-      <c r="A365" s="12"/>
-      <c r="B365" s="14"/>
-      <c r="C365" s="3" t="s">
-        <v>123</v>
+      <c r="A365" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B365" s="17"/>
+      <c r="C365" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="12"/>
-      <c r="B366" s="14"/>
-      <c r="C366" s="3" t="s">
-        <v>124</v>
+      <c r="A366" s="17"/>
+      <c r="B366" s="17"/>
+      <c r="C366" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="D366" s="3"/>
       <c r="E366" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="367" spans="1:5">
-      <c r="A367" s="12"/>
-      <c r="B367" s="14"/>
-      <c r="C367" s="3" t="s">
-        <v>125</v>
+      <c r="A367" s="17"/>
+      <c r="B367" s="17"/>
+      <c r="C367" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D367" s="3"/>
       <c r="E367" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="368" spans="1:5">
-      <c r="A368" s="12"/>
-      <c r="B368" s="14"/>
-      <c r="C368" s="3" t="s">
-        <v>126</v>
+      <c r="A368" s="17"/>
+      <c r="B368" s="17"/>
+      <c r="C368" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="D368" s="3"/>
       <c r="E368" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="12"/>
-      <c r="B369" s="14"/>
-      <c r="C369" s="3" t="s">
-        <v>77</v>
+      <c r="A369" s="17"/>
+      <c r="B369" s="17"/>
+      <c r="C369" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="D369" s="3"/>
       <c r="E369" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="370" spans="1:5">
-      <c r="A370" s="12"/>
-      <c r="B370" s="14"/>
-      <c r="C370" s="3" t="s">
-        <v>129</v>
+      <c r="A370" s="17"/>
+      <c r="B370" s="17"/>
+      <c r="C370" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="D370" s="3"/>
       <c r="E370" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" s="12"/>
-      <c r="B371" s="14"/>
-      <c r="C371" s="3" t="s">
-        <v>127</v>
+      <c r="A371" s="17"/>
+      <c r="B371" s="17"/>
+      <c r="C371" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="D371" s="3"/>
       <c r="E371" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="372" spans="1:5">
-      <c r="A372" s="12"/>
-      <c r="B372" s="14"/>
-      <c r="C372" s="3" t="s">
-        <v>57</v>
+      <c r="A372" s="17"/>
+      <c r="B372" s="17"/>
+      <c r="C372" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="D372" s="3"/>
       <c r="E372" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="373" spans="1:5">
-      <c r="A373" s="12"/>
-      <c r="B373" s="15"/>
-      <c r="C373" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D373" s="3"/>
-      <c r="E373" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A373" s="18"/>
+      <c r="B373" s="19"/>
+      <c r="C373" s="19"/>
+      <c r="D373" s="19"/>
+      <c r="E373" s="20"/>
     </row>
     <row r="374" spans="1:5">
-      <c r="A374" s="16"/>
-      <c r="B374" s="17"/>
-      <c r="C374" s="17"/>
-      <c r="D374" s="17"/>
-      <c r="E374" s="18"/>
+      <c r="A374" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B374" s="25"/>
+      <c r="C374" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D374" s="3"/>
+      <c r="E374" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="375" spans="1:5">
-      <c r="A375" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B375" s="13"/>
+      <c r="A375" s="17"/>
+      <c r="B375" s="23"/>
       <c r="C375" s="3" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D375" s="3"/>
       <c r="E375" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="376" spans="1:5">
-      <c r="A376" s="12"/>
-      <c r="B376" s="14"/>
+      <c r="A376" s="17"/>
+      <c r="B376" s="23"/>
       <c r="C376" s="3" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="D376" s="3"/>
       <c r="E376" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="377" spans="1:5">
-      <c r="A377" s="12"/>
-      <c r="B377" s="14"/>
+      <c r="A377" s="17"/>
+      <c r="B377" s="23"/>
       <c r="C377" s="3" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="D377" s="3"/>
       <c r="E377" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="378" spans="1:5">
-      <c r="A378" s="12"/>
-      <c r="B378" s="14"/>
+      <c r="A378" s="17"/>
+      <c r="B378" s="23"/>
       <c r="C378" s="3" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="D378" s="3"/>
       <c r="E378" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="379" spans="1:5">
-      <c r="A379" s="12"/>
-      <c r="B379" s="14"/>
+      <c r="A379" s="17"/>
+      <c r="B379" s="23"/>
       <c r="C379" s="3" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="D379" s="3"/>
       <c r="E379" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="380" spans="1:5">
-      <c r="A380" s="12"/>
-      <c r="B380" s="14"/>
+      <c r="A380" s="17"/>
+      <c r="B380" s="24"/>
       <c r="C380" s="3" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="D380" s="3"/>
       <c r="E380" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="381" spans="1:5">
-      <c r="A381" s="12"/>
-      <c r="B381" s="14"/>
-      <c r="C381" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D381" s="3"/>
-      <c r="E381" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="A381" s="26"/>
+      <c r="B381" s="27"/>
+      <c r="C381" s="27"/>
+      <c r="D381" s="27"/>
+      <c r="E381" s="28"/>
     </row>
     <row r="382" spans="1:5">
-      <c r="A382" s="12"/>
-      <c r="B382" s="14"/>
-      <c r="C382" s="3" t="s">
-        <v>53</v>
+      <c r="A382" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B382" s="17"/>
+      <c r="C382" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="D382" s="3"/>
       <c r="E382" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="383" spans="1:5">
-      <c r="A383" s="12"/>
-      <c r="B383" s="14"/>
-      <c r="C383" s="3" t="s">
-        <v>69</v>
+      <c r="A383" s="17"/>
+      <c r="B383" s="17"/>
+      <c r="C383" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="D383" s="3"/>
       <c r="E383" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="384" spans="1:5">
-      <c r="A384" s="12"/>
-      <c r="B384" s="14"/>
-      <c r="C384" s="3" t="s">
-        <v>54</v>
+      <c r="A384" s="17"/>
+      <c r="B384" s="17"/>
+      <c r="C384" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="385" spans="1:5">
-      <c r="A385" s="12"/>
-      <c r="B385" s="14"/>
-      <c r="C385" s="3" t="s">
-        <v>55</v>
+      <c r="A385" s="17"/>
+      <c r="B385" s="17"/>
+      <c r="C385" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="D385" s="3"/>
       <c r="E385" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="12"/>
-      <c r="B386" s="14"/>
-      <c r="C386" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D386" s="3"/>
-      <c r="E386" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A386" s="17"/>
+      <c r="B386" s="17"/>
+      <c r="C386" s="17"/>
+      <c r="D386" s="17"/>
+      <c r="E386" s="17"/>
     </row>
     <row r="387" spans="1:5">
-      <c r="A387" s="12"/>
-      <c r="B387" s="14"/>
+      <c r="A387" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B387" s="17"/>
       <c r="C387" s="3" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="D387" s="3"/>
       <c r="E387" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="388" spans="1:5">
-      <c r="A388" s="12"/>
-      <c r="B388" s="14"/>
+      <c r="A388" s="17"/>
+      <c r="B388" s="17"/>
       <c r="C388" s="3" t="s">
-        <v>56</v>
+        <v>253</v>
       </c>
       <c r="D388" s="3"/>
       <c r="E388" s="3" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="389" spans="1:5">
-      <c r="A389" s="12"/>
-      <c r="B389" s="14"/>
+      <c r="A389" s="17"/>
+      <c r="B389" s="17"/>
       <c r="C389" s="3" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="D389" s="3"/>
       <c r="E389" s="3" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="390" spans="1:5">
-      <c r="A390" s="12"/>
-      <c r="B390" s="15"/>
+      <c r="A390" s="17"/>
+      <c r="B390" s="17"/>
       <c r="C390" s="3" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="D390" s="3"/>
       <c r="E390" s="3" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="391" spans="1:5">
-      <c r="A391" s="19"/>
-      <c r="B391" s="20"/>
-      <c r="C391" s="20"/>
-      <c r="D391" s="20"/>
-      <c r="E391" s="21"/>
+      <c r="A391" s="17"/>
+      <c r="B391" s="17"/>
+      <c r="C391" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D391" s="3"/>
+      <c r="E391" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="392" spans="1:5">
-      <c r="A392" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B392" s="13"/>
+      <c r="A392" s="17"/>
+      <c r="B392" s="17"/>
       <c r="C392" s="3" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D392" s="3"/>
       <c r="E392" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="393" spans="1:5">
-      <c r="A393" s="12"/>
-      <c r="B393" s="14"/>
+      <c r="A393" s="17"/>
+      <c r="B393" s="17"/>
       <c r="C393" s="3" t="s">
-        <v>67</v>
+        <v>260</v>
       </c>
       <c r="D393" s="3"/>
       <c r="E393" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="394" spans="1:5">
-      <c r="A394" s="12"/>
-      <c r="B394" s="14"/>
-      <c r="C394" s="3" t="s">
-        <v>61</v>
+      <c r="A394" s="17"/>
+      <c r="B394" s="17"/>
+      <c r="C394" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="D394" s="3"/>
       <c r="E394" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="395" spans="1:5">
-      <c r="A395" s="12"/>
-      <c r="B395" s="14"/>
-      <c r="C395" s="3" t="s">
-        <v>68</v>
+      <c r="A395" s="17"/>
+      <c r="B395" s="17"/>
+      <c r="C395" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="D395" s="3"/>
       <c r="E395" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="396" spans="1:5">
-      <c r="A396" s="12"/>
-      <c r="B396" s="14"/>
-      <c r="C396" s="3" t="s">
-        <v>69</v>
+      <c r="A396" s="17"/>
+      <c r="B396" s="17"/>
+      <c r="C396" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="D396" s="3"/>
       <c r="E396" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="12"/>
-      <c r="B397" s="14"/>
-      <c r="C397" s="3" t="s">
-        <v>54</v>
+      <c r="A397" s="17"/>
+      <c r="B397" s="17"/>
+      <c r="C397" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="D397" s="3"/>
       <c r="E397" s="3" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="398" spans="1:5">
-      <c r="A398" s="12"/>
-      <c r="B398" s="14"/>
-      <c r="C398" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D398" s="3"/>
-      <c r="E398" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A398" s="18"/>
+      <c r="B398" s="19"/>
+      <c r="C398" s="19"/>
+      <c r="D398" s="19"/>
+      <c r="E398" s="20"/>
     </row>
     <row r="399" spans="1:5">
-      <c r="A399" s="12"/>
-      <c r="B399" s="14"/>
+      <c r="A399" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B399" s="25"/>
       <c r="C399" s="3" t="s">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c r="D399" s="3"/>
       <c r="E399" s="3" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="400" spans="1:5">
-      <c r="A400" s="12"/>
-      <c r="B400" s="14"/>
+      <c r="A400" s="17"/>
+      <c r="B400" s="23"/>
       <c r="C400" s="3" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D400" s="3"/>
       <c r="E400" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="12"/>
-      <c r="B401" s="14"/>
+      <c r="A401" s="17"/>
+      <c r="B401" s="23"/>
       <c r="C401" s="3" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D401" s="3"/>
       <c r="E401" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="12"/>
-      <c r="B402" s="14"/>
+      <c r="A402" s="17"/>
+      <c r="B402" s="23"/>
       <c r="C402" s="3" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="D402" s="3"/>
       <c r="E402" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="12"/>
-      <c r="B403" s="14"/>
+      <c r="A403" s="17"/>
+      <c r="B403" s="23"/>
       <c r="C403" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D403" s="3"/>
       <c r="E403" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="404" spans="1:5">
-      <c r="A404" s="12"/>
-      <c r="B404" s="15"/>
+      <c r="A404" s="17"/>
+      <c r="B404" s="23"/>
       <c r="C404" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D404" s="3"/>
       <c r="E404" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="405" spans="1:5">
-      <c r="A405" s="16"/>
-      <c r="B405" s="17"/>
-      <c r="C405" s="17"/>
-      <c r="D405" s="17"/>
-      <c r="E405" s="18"/>
+      <c r="A405" s="17"/>
+      <c r="B405" s="23"/>
+      <c r="C405" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D405" s="3"/>
+      <c r="E405" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="406" spans="1:5">
-      <c r="A406" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B406" s="13"/>
+      <c r="A406" s="17"/>
+      <c r="B406" s="23"/>
       <c r="C406" s="3" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="D406" s="3"/>
       <c r="E406" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="407" spans="1:5">
-      <c r="A407" s="12"/>
-      <c r="B407" s="14"/>
+      <c r="A407" s="17"/>
+      <c r="B407" s="23"/>
       <c r="C407" s="3" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D407" s="3"/>
       <c r="E407" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="408" spans="1:5">
-      <c r="A408" s="12"/>
-      <c r="B408" s="14"/>
+      <c r="A408" s="17"/>
+      <c r="B408" s="23"/>
       <c r="C408" s="3" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D408" s="3"/>
       <c r="E408" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="409" spans="1:5">
-      <c r="A409" s="12"/>
-      <c r="B409" s="14"/>
+      <c r="A409" s="17"/>
+      <c r="B409" s="23"/>
       <c r="C409" s="3" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="D409" s="3"/>
       <c r="E409" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="410" spans="1:5">
-      <c r="A410" s="12"/>
-      <c r="B410" s="14"/>
+      <c r="A410" s="17"/>
+      <c r="B410" s="23"/>
       <c r="C410" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D410" s="3"/>
       <c r="E410" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="411" spans="1:5">
-      <c r="A411" s="12"/>
-      <c r="B411" s="14"/>
+      <c r="A411" s="17"/>
+      <c r="B411" s="23"/>
       <c r="C411" s="3" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="D411" s="3"/>
       <c r="E411" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="12"/>
-      <c r="B412" s="14"/>
+      <c r="A412" s="17"/>
+      <c r="B412" s="23"/>
       <c r="C412" s="3" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="D412" s="3"/>
       <c r="E412" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="413" spans="1:5">
-      <c r="A413" s="12"/>
-      <c r="B413" s="14"/>
+      <c r="A413" s="17"/>
+      <c r="B413" s="23"/>
       <c r="C413" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D413" s="3"/>
       <c r="E413" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="414" spans="1:5">
-      <c r="A414" s="12"/>
-      <c r="B414" s="14"/>
+      <c r="A414" s="17"/>
+      <c r="B414" s="23"/>
       <c r="C414" s="3" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="D414" s="3"/>
       <c r="E414" s="3" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="12"/>
-      <c r="B415" s="14"/>
-      <c r="C415" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D415" s="3"/>
-      <c r="E415" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="A415" s="18"/>
+      <c r="B415" s="19"/>
+      <c r="C415" s="19"/>
+      <c r="D415" s="19"/>
+      <c r="E415" s="20"/>
     </row>
     <row r="416" spans="1:5">
-      <c r="A416" s="12"/>
-      <c r="B416" s="14"/>
+      <c r="A416" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B416" s="25"/>
       <c r="C416" s="3" t="s">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="D416" s="3"/>
       <c r="E416" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="417" spans="1:5">
-      <c r="A417" s="12"/>
-      <c r="B417" s="14"/>
+      <c r="A417" s="17"/>
+      <c r="B417" s="23"/>
       <c r="C417" s="3" t="s">
-        <v>61</v>
+        <v>293</v>
       </c>
       <c r="D417" s="3"/>
       <c r="E417" s="3" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="12"/>
-      <c r="B418" s="14"/>
+      <c r="A418" s="17"/>
+      <c r="B418" s="23"/>
       <c r="C418" s="3" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="D418" s="3"/>
       <c r="E418" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="12"/>
-      <c r="B419" s="14"/>
+      <c r="A419" s="17"/>
+      <c r="B419" s="23"/>
       <c r="C419" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D419" s="3"/>
       <c r="E419" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="420" spans="1:5">
-      <c r="A420" s="12"/>
-      <c r="B420" s="14"/>
+      <c r="A420" s="17"/>
+      <c r="B420" s="23"/>
       <c r="C420" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D420" s="3"/>
       <c r="E420" s="3" t="s">
@@ -7500,242 +7615,883 @@
       </c>
     </row>
     <row r="421" spans="1:5">
-      <c r="A421" s="12"/>
-      <c r="B421" s="14"/>
+      <c r="A421" s="17"/>
+      <c r="B421" s="23"/>
       <c r="C421" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D421" s="3"/>
       <c r="E421" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="422" spans="1:5">
-      <c r="A422" s="12"/>
-      <c r="B422" s="15"/>
+      <c r="A422" s="17"/>
+      <c r="B422" s="23"/>
       <c r="C422" s="3" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D422" s="3"/>
       <c r="E422" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="423" spans="1:5">
-      <c r="A423" s="19"/>
-      <c r="B423" s="20"/>
-      <c r="C423" s="20"/>
-      <c r="D423" s="20"/>
-      <c r="E423" s="21"/>
+      <c r="A423" s="17"/>
+      <c r="B423" s="23"/>
+      <c r="C423" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D423" s="3"/>
+      <c r="E423" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B424" s="13"/>
+      <c r="A424" s="17"/>
+      <c r="B424" s="23"/>
       <c r="C424" s="3" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="D424" s="3"/>
       <c r="E424" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="425" spans="1:5">
-      <c r="A425" s="12"/>
-      <c r="B425" s="14"/>
+      <c r="A425" s="17"/>
+      <c r="B425" s="23"/>
       <c r="C425" s="3" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="D425" s="3"/>
       <c r="E425" s="3" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
     </row>
     <row r="426" spans="1:5">
-      <c r="A426" s="12"/>
-      <c r="B426" s="14"/>
+      <c r="A426" s="17"/>
+      <c r="B426" s="23"/>
       <c r="C426" s="3" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D426" s="3"/>
       <c r="E426" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="427" spans="1:5">
-      <c r="A427" s="12"/>
-      <c r="B427" s="14"/>
+      <c r="A427" s="17"/>
+      <c r="B427" s="23"/>
       <c r="C427" s="3" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D427" s="3"/>
       <c r="E427" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="428" spans="1:5">
-      <c r="A428" s="12"/>
-      <c r="B428" s="14"/>
+      <c r="A428" s="17"/>
+      <c r="B428" s="23"/>
       <c r="C428" s="3" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="429" spans="1:5">
-      <c r="A429" s="12"/>
-      <c r="B429" s="14"/>
+      <c r="A429" s="17"/>
+      <c r="B429" s="23"/>
       <c r="C429" s="3" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D429" s="3"/>
       <c r="E429" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="430" spans="1:5">
-      <c r="A430" s="12"/>
-      <c r="B430" s="14"/>
+      <c r="A430" s="17"/>
+      <c r="B430" s="23"/>
       <c r="C430" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D430" s="3"/>
       <c r="E430" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="431" spans="1:5">
-      <c r="A431" s="12"/>
-      <c r="B431" s="14"/>
+      <c r="A431" s="17"/>
+      <c r="B431" s="24"/>
       <c r="C431" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D431" s="3"/>
       <c r="E431" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="432" spans="1:5">
-      <c r="A432" s="12"/>
-      <c r="B432" s="14"/>
-      <c r="C432" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D432" s="3"/>
-      <c r="E432" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="A432" s="18"/>
+      <c r="B432" s="19"/>
+      <c r="C432" s="19"/>
+      <c r="D432" s="19"/>
+      <c r="E432" s="20"/>
     </row>
     <row r="433" spans="1:5">
-      <c r="A433" s="12"/>
-      <c r="B433" s="15"/>
+      <c r="A433" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B433" s="25"/>
       <c r="C433" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D433" s="3"/>
       <c r="E433" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="17"/>
+      <c r="B434" s="23"/>
+      <c r="C434" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D434" s="3"/>
+      <c r="E434" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="17"/>
+      <c r="B435" s="23"/>
+      <c r="C435" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D435" s="3"/>
+      <c r="E435" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="17"/>
+      <c r="B436" s="23"/>
+      <c r="C436" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D436" s="3"/>
+      <c r="E436" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="17"/>
+      <c r="B437" s="23"/>
+      <c r="C437" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D437" s="3"/>
+      <c r="E437" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="17"/>
+      <c r="B438" s="23"/>
+      <c r="C438" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D438" s="3"/>
+      <c r="E438" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="17"/>
+      <c r="B439" s="23"/>
+      <c r="C439" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D439" s="3"/>
+      <c r="E439" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="17"/>
+      <c r="B440" s="23"/>
+      <c r="C440" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D440" s="3"/>
+      <c r="E440" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="17"/>
+      <c r="B441" s="23"/>
+      <c r="C441" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D441" s="3"/>
+      <c r="E441" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="17"/>
+      <c r="B442" s="23"/>
+      <c r="C442" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D442" s="3"/>
+      <c r="E442" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="17"/>
+      <c r="B443" s="23"/>
+      <c r="C443" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D443" s="3"/>
+      <c r="E443" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="17"/>
+      <c r="B444" s="23"/>
+      <c r="C444" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D444" s="3"/>
+      <c r="E444" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="17"/>
+      <c r="B445" s="23"/>
+      <c r="C445" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D445" s="3"/>
+      <c r="E445" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="17"/>
+      <c r="B446" s="23"/>
+      <c r="C446" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D446" s="3"/>
+      <c r="E446" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="17"/>
+      <c r="B447" s="23"/>
+      <c r="C447" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="434" spans="1:5">
-      <c r="A434" s="19"/>
-      <c r="B434" s="20"/>
-      <c r="C434" s="20"/>
-      <c r="D434" s="20"/>
-      <c r="E434" s="21"/>
+      <c r="D447" s="3"/>
+      <c r="E447" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="17"/>
+      <c r="B448" s="24"/>
+      <c r="C448" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D448" s="3"/>
+      <c r="E448" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="26"/>
+      <c r="B449" s="27"/>
+      <c r="C449" s="27"/>
+      <c r="D449" s="27"/>
+      <c r="E449" s="28"/>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B450" s="25"/>
+      <c r="C450" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D450" s="3"/>
+      <c r="E450" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="17"/>
+      <c r="B451" s="23"/>
+      <c r="C451" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D451" s="3"/>
+      <c r="E451" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="17"/>
+      <c r="B452" s="23"/>
+      <c r="C452" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D452" s="3"/>
+      <c r="E452" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="17"/>
+      <c r="B453" s="23"/>
+      <c r="C453" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D453" s="3"/>
+      <c r="E453" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="17"/>
+      <c r="B454" s="23"/>
+      <c r="C454" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D454" s="3"/>
+      <c r="E454" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="17"/>
+      <c r="B455" s="23"/>
+      <c r="C455" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D455" s="3"/>
+      <c r="E455" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="17"/>
+      <c r="B456" s="23"/>
+      <c r="C456" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D456" s="3"/>
+      <c r="E456" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="17"/>
+      <c r="B457" s="23"/>
+      <c r="C457" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D457" s="3"/>
+      <c r="E457" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="17"/>
+      <c r="B458" s="23"/>
+      <c r="C458" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D458" s="3"/>
+      <c r="E458" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="17"/>
+      <c r="B459" s="23"/>
+      <c r="C459" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D459" s="3"/>
+      <c r="E459" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="17"/>
+      <c r="B460" s="23"/>
+      <c r="C460" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D460" s="3"/>
+      <c r="E460" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="17"/>
+      <c r="B461" s="23"/>
+      <c r="C461" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D461" s="3"/>
+      <c r="E461" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="17"/>
+      <c r="B462" s="24"/>
+      <c r="C462" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D462" s="3"/>
+      <c r="E462" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="18"/>
+      <c r="B463" s="19"/>
+      <c r="C463" s="19"/>
+      <c r="D463" s="19"/>
+      <c r="E463" s="20"/>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B464" s="25"/>
+      <c r="C464" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D464" s="3"/>
+      <c r="E464" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="17"/>
+      <c r="B465" s="23"/>
+      <c r="C465" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D465" s="3"/>
+      <c r="E465" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="17"/>
+      <c r="B466" s="23"/>
+      <c r="C466" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D466" s="3"/>
+      <c r="E466" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="17"/>
+      <c r="B467" s="23"/>
+      <c r="C467" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D467" s="3"/>
+      <c r="E467" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="17"/>
+      <c r="B468" s="23"/>
+      <c r="C468" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D468" s="3"/>
+      <c r="E468" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="17"/>
+      <c r="B469" s="23"/>
+      <c r="C469" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D469" s="3"/>
+      <c r="E469" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="17"/>
+      <c r="B470" s="23"/>
+      <c r="C470" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D470" s="3"/>
+      <c r="E470" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="17"/>
+      <c r="B471" s="23"/>
+      <c r="C471" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D471" s="3"/>
+      <c r="E471" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="17"/>
+      <c r="B472" s="23"/>
+      <c r="C472" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D472" s="3"/>
+      <c r="E472" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="17"/>
+      <c r="B473" s="23"/>
+      <c r="C473" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D473" s="3"/>
+      <c r="E473" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="17"/>
+      <c r="B474" s="23"/>
+      <c r="C474" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D474" s="3"/>
+      <c r="E474" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="17"/>
+      <c r="B475" s="23"/>
+      <c r="C475" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D475" s="3"/>
+      <c r="E475" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="17"/>
+      <c r="B476" s="23"/>
+      <c r="C476" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D476" s="3"/>
+      <c r="E476" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="17"/>
+      <c r="B477" s="23"/>
+      <c r="C477" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D477" s="3"/>
+      <c r="E477" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="17"/>
+      <c r="B478" s="23"/>
+      <c r="C478" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D478" s="3"/>
+      <c r="E478" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="17"/>
+      <c r="B479" s="23"/>
+      <c r="C479" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D479" s="3"/>
+      <c r="E479" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="17"/>
+      <c r="B480" s="24"/>
+      <c r="C480" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D480" s="3"/>
+      <c r="E480" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="26"/>
+      <c r="B481" s="27"/>
+      <c r="C481" s="27"/>
+      <c r="D481" s="27"/>
+      <c r="E481" s="28"/>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B482" s="25"/>
+      <c r="C482" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D482" s="3"/>
+      <c r="E482" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="17"/>
+      <c r="B483" s="23"/>
+      <c r="C483" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D483" s="3"/>
+      <c r="E483" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="17"/>
+      <c r="B484" s="23"/>
+      <c r="C484" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D484" s="3"/>
+      <c r="E484" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="17"/>
+      <c r="B485" s="23"/>
+      <c r="C485" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D485" s="3"/>
+      <c r="E485" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="17"/>
+      <c r="B486" s="23"/>
+      <c r="C486" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D486" s="3"/>
+      <c r="E486" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="17"/>
+      <c r="B487" s="23"/>
+      <c r="C487" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D487" s="3"/>
+      <c r="E487" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="17"/>
+      <c r="B488" s="23"/>
+      <c r="C488" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D488" s="3"/>
+      <c r="E488" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="17"/>
+      <c r="B489" s="23"/>
+      <c r="C489" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D489" s="3"/>
+      <c r="E489" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="17"/>
+      <c r="B490" s="23"/>
+      <c r="C490" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D490" s="3"/>
+      <c r="E490" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="17"/>
+      <c r="B491" s="24"/>
+      <c r="C491" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D491" s="3"/>
+      <c r="E491" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="26"/>
+      <c r="B492" s="27"/>
+      <c r="C492" s="27"/>
+      <c r="D492" s="27"/>
+      <c r="E492" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="A324:A327"/>
-    <mergeCell ref="B324:B327"/>
-    <mergeCell ref="A328:E328"/>
-    <mergeCell ref="A329:A339"/>
-    <mergeCell ref="B329:B339"/>
-    <mergeCell ref="A297:E297"/>
-    <mergeCell ref="A298:A305"/>
-    <mergeCell ref="B298:B305"/>
-    <mergeCell ref="A307:A314"/>
-    <mergeCell ref="B307:B314"/>
-    <mergeCell ref="A306:E306"/>
-    <mergeCell ref="A275:A285"/>
-    <mergeCell ref="B275:B285"/>
+  <mergeCells count="92">
+    <mergeCell ref="B311:B331"/>
+    <mergeCell ref="A311:A331"/>
+    <mergeCell ref="A332:E332"/>
+    <mergeCell ref="A196:A202"/>
+    <mergeCell ref="B196:B202"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A236:A255"/>
+    <mergeCell ref="B236:B255"/>
+    <mergeCell ref="B3:B29"/>
+    <mergeCell ref="A433:A448"/>
+    <mergeCell ref="B433:B448"/>
+    <mergeCell ref="A464:A480"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="A163:A179"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A450:A462"/>
+    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="A112:A122"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="B31:B43"/>
+    <mergeCell ref="B112:B122"/>
+    <mergeCell ref="A256:E256"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="B464:B480"/>
+    <mergeCell ref="B482:B491"/>
+    <mergeCell ref="B450:B462"/>
+    <mergeCell ref="A482:A491"/>
+    <mergeCell ref="A374:A380"/>
+    <mergeCell ref="A381:E381"/>
+    <mergeCell ref="A449:E449"/>
+    <mergeCell ref="A481:E481"/>
+    <mergeCell ref="A492:E492"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A373:E373"/>
+    <mergeCell ref="B124:B130"/>
+    <mergeCell ref="B45:B71"/>
+    <mergeCell ref="B163:B179"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A204:A222"/>
+    <mergeCell ref="B204:B222"/>
+    <mergeCell ref="A45:A71"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="A235:E235"/>
+    <mergeCell ref="A223:E223"/>
+    <mergeCell ref="A463:E463"/>
+    <mergeCell ref="A73:A110"/>
+    <mergeCell ref="B73:B110"/>
+    <mergeCell ref="A132:A161"/>
+    <mergeCell ref="B132:B161"/>
+    <mergeCell ref="B374:B380"/>
+    <mergeCell ref="A416:A431"/>
+    <mergeCell ref="A415:E415"/>
+    <mergeCell ref="B416:B431"/>
+    <mergeCell ref="A432:E432"/>
+    <mergeCell ref="B399:B414"/>
+    <mergeCell ref="A398:E398"/>
+    <mergeCell ref="A399:A414"/>
+    <mergeCell ref="A181:A194"/>
+    <mergeCell ref="B181:B194"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="A224:A234"/>
+    <mergeCell ref="B224:B234"/>
+    <mergeCell ref="A257:A274"/>
+    <mergeCell ref="B257:B274"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A276:A285"/>
+    <mergeCell ref="B276:B285"/>
     <mergeCell ref="A286:E286"/>
-    <mergeCell ref="A287:A296"/>
-    <mergeCell ref="B287:B296"/>
-    <mergeCell ref="A250:E250"/>
-    <mergeCell ref="A251:A265"/>
-    <mergeCell ref="B251:B265"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A267:A273"/>
-    <mergeCell ref="B267:B273"/>
-    <mergeCell ref="A221:A238"/>
-    <mergeCell ref="B221:B238"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A240:A249"/>
-    <mergeCell ref="B240:B249"/>
-    <mergeCell ref="A173:A185"/>
-    <mergeCell ref="B173:B185"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A209:A219"/>
-    <mergeCell ref="B209:B219"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="A220:E220"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A405:E405"/>
-    <mergeCell ref="A73:A105"/>
-    <mergeCell ref="B73:B105"/>
-    <mergeCell ref="A127:A154"/>
-    <mergeCell ref="B127:B154"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A315:E315"/>
-    <mergeCell ref="B119:B125"/>
-    <mergeCell ref="B47:B71"/>
-    <mergeCell ref="B156:B171"/>
-    <mergeCell ref="B316:B322"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A358:A373"/>
-    <mergeCell ref="A357:E357"/>
-    <mergeCell ref="A187:A207"/>
-    <mergeCell ref="B358:B373"/>
-    <mergeCell ref="B187:B207"/>
-    <mergeCell ref="A47:A71"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="B341:B356"/>
-    <mergeCell ref="A340:E340"/>
-    <mergeCell ref="A341:A356"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="A316:A322"/>
-    <mergeCell ref="A323:E323"/>
-    <mergeCell ref="A391:E391"/>
-    <mergeCell ref="A423:E423"/>
-    <mergeCell ref="A434:E434"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B406:B422"/>
-    <mergeCell ref="B424:B433"/>
-    <mergeCell ref="B392:B404"/>
-    <mergeCell ref="B3:B31"/>
-    <mergeCell ref="A375:A390"/>
-    <mergeCell ref="B375:B390"/>
-    <mergeCell ref="A406:A422"/>
-    <mergeCell ref="A33:A45"/>
-    <mergeCell ref="A156:A171"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A424:A433"/>
-    <mergeCell ref="A392:A404"/>
-    <mergeCell ref="A3:A31"/>
-    <mergeCell ref="A107:A117"/>
-    <mergeCell ref="A119:A125"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="B33:B45"/>
-    <mergeCell ref="B107:B117"/>
+    <mergeCell ref="A287:A301"/>
+    <mergeCell ref="B287:B301"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A303:A309"/>
+    <mergeCell ref="B303:B309"/>
+    <mergeCell ref="A333:A343"/>
+    <mergeCell ref="B333:B343"/>
+    <mergeCell ref="A344:E344"/>
+    <mergeCell ref="A345:A354"/>
+    <mergeCell ref="B345:B354"/>
+    <mergeCell ref="A355:E355"/>
+    <mergeCell ref="A356:A363"/>
+    <mergeCell ref="B356:B363"/>
+    <mergeCell ref="A365:A372"/>
+    <mergeCell ref="B365:B372"/>
+    <mergeCell ref="A364:E364"/>
+    <mergeCell ref="A382:A385"/>
+    <mergeCell ref="B382:B385"/>
+    <mergeCell ref="A386:E386"/>
+    <mergeCell ref="A387:A397"/>
+    <mergeCell ref="B387:B397"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E74:E105 E3:E25 E47:E66 E127:E143" xr:uid="{18BDC468-0A50-7740-8A71-50C214287926}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45:E65 E3:E23 E75:E110 E132:E149" xr:uid="{18BDC468-0A50-7740-8A71-50C214287926}">
       <formula1>"字段,按钮,链接,其他"</formula1>
     </dataValidation>
   </dataValidations>
